--- a/Data/Output/Tracking.xlsx
+++ b/Data/Output/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpa\finalproject\uipath\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7B2444-B847-4EC4-BF09-ACF482050C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A26874-4F86-453C-9CF6-4E6D9277FB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="1848" yWindow="1920" windowWidth="21192" windowHeight="10596" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="348" yWindow="2364" windowWidth="21192" windowHeight="10596" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>ApplicationID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubmittedAt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CustomerType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Status</x:t>
-  </x:si>
-  <x:si>
     <x:t>APP0001</x:t>
   </x:si>
   <x:si>
@@ -44,6 +32,9 @@
     <x:t>Vietnam</x:t>
   </x:si>
   <x:si>
+    <x:t>RECEIVED</x:t>
+  </x:si>
+  <x:si>
     <x:t>APP0002</x:t>
   </x:si>
   <x:si>
@@ -51,9 +42,6 @@
   </x:si>
   <x:si>
     <x:t>Other</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHECKED_OK</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -103,9 +91,7 @@
   </x:cellStyleXfs>
   <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,15 +399,12 @@
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D3" sqref="D3"/>
+      <x:selection activeCell="A4" sqref="A4 4:8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:cols>
-    <x:col min="1" max="4" width="20.332031" style="0" customWidth="1"/>
-  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -446,24 +429,55 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/Data/Output/Tracking.xlsx
+++ b/Data/Output/Tracking.xlsx
@@ -46,7 +46,7 @@
     <x:t>Other</x:t>
   </x:si>
   <x:si>
-    <x:t>CHECKED_OKE</x:t>
+    <x:t>RECEIVED</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/Data/Output/Tracking.xlsx
+++ b/Data/Output/Tracking.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpa\finalproject\uipath\Data\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0ACE0-3381-43DA-B904-086BC276E1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="1116" yWindow="1116" windowWidth="21192" windowHeight="10596" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Log" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Log" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
@@ -46,19 +53,18 @@
     <x:t>Other</x:t>
   </x:si>
   <x:si>
-    <x:t>RECEIVED</x:t>
+    <x:t>CHECKED_OKE</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -74,38 +80,32 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -393,17 +393,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D4"/>
+  <x:dimension ref="A1:D7"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2 2:7"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -417,7 +419,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -431,7 +433,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4">
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -445,7 +447,7 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4">
+    <x:row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -457,6 +459,48 @@
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Output/Tracking.xlsx
+++ b/Data/Output/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpa\finalproject\uipath\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0ACE0-3381-43DA-B904-086BC276E1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5131F15C-104C-48A9-88EF-221088132A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="1116" yWindow="1116" windowWidth="21192" windowHeight="10596" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="768" yWindow="768" windowWidth="21192" windowHeight="10596" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D7"/>
+  <x:dimension ref="A1:D1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 2:7"/>
+      <x:selection activeCell="A2" sqref="A2 2:5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,7 +419,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -433,7 +433,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -447,7 +447,7 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -459,48 +459,6 @@
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Output/Tracking.xlsx
+++ b/Data/Output/Tracking.xlsx
@@ -1,112 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <x:workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpa\finalproject\uipath\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UEL\RPA\RPA_CreditCardApproval\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5131F15C-104C-48A9-88EF-221088132A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="768" yWindow="768" windowWidth="21192" windowHeight="10596" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Log" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="0"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67794D85-E309-45A0-9C4A-0B579B7684D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Log" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>ApplicationID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubmittedAt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CustomerType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Status</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>APP0001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01/01/0001 00:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vietnam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP0002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Other</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHECKED_OKE</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>ApplicationID</t>
+  </si>
+  <si>
+    <t>SubmittedAt</t>
+  </si>
+  <si>
+    <t>CustomerType</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,79 +369,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 2:5"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>